--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H2">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N2">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O2">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P2">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q2">
-        <v>760.3023804731225</v>
+        <v>712.63079890611</v>
       </c>
       <c r="R2">
-        <v>6842.721424258104</v>
+        <v>6413.67719015499</v>
       </c>
       <c r="S2">
-        <v>0.194267959518676</v>
+        <v>0.1664523490114639</v>
       </c>
       <c r="T2">
-        <v>0.194267959518676</v>
+        <v>0.1664523490114639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H3">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P3">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q3">
-        <v>45.73659986188833</v>
+        <v>42.34213143177</v>
       </c>
       <c r="R3">
-        <v>411.6293987569949</v>
+        <v>381.07918288593</v>
       </c>
       <c r="S3">
-        <v>0.01168634501047087</v>
+        <v>0.009890040186010579</v>
       </c>
       <c r="T3">
-        <v>0.01168634501047087</v>
+        <v>0.009890040186010581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H4">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N4">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q4">
-        <v>11.75700644067066</v>
+        <v>12.98346480243</v>
       </c>
       <c r="R4">
-        <v>105.813057966036</v>
+        <v>116.85118322187</v>
       </c>
       <c r="S4">
-        <v>0.003004080626257836</v>
+        <v>0.003032605688653188</v>
       </c>
       <c r="T4">
-        <v>0.003004080626257836</v>
+        <v>0.003032605688653188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H5">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N5">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O5">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P5">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q5">
-        <v>29.74824463091633</v>
+        <v>10.117323743832</v>
       </c>
       <c r="R5">
-        <v>267.734201678247</v>
+        <v>91.055913694488</v>
       </c>
       <c r="S5">
-        <v>0.007601095211768604</v>
+        <v>0.002363148358806998</v>
       </c>
       <c r="T5">
-        <v>0.007601095211768604</v>
+        <v>0.002363148358806999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N6">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O6">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P6">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q6">
-        <v>1141.430429073088</v>
+        <v>1155.63009502052</v>
       </c>
       <c r="R6">
-        <v>10272.87386165779</v>
+        <v>10400.67085518468</v>
       </c>
       <c r="S6">
-        <v>0.2916515403392118</v>
+        <v>0.2699256672596466</v>
       </c>
       <c r="T6">
-        <v>0.2916515403392118</v>
+        <v>0.2699256672596466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P7">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q7">
         <v>68.66366349164001</v>
@@ -883,10 +883,10 @@
         <v>617.97297142476</v>
       </c>
       <c r="S7">
-        <v>0.01754453246785469</v>
+        <v>0.01603807763776146</v>
       </c>
       <c r="T7">
-        <v>0.01754453246785469</v>
+        <v>0.01603807763776147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N8">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q8">
-        <v>17.650615400992</v>
+        <v>21.05449650276</v>
       </c>
       <c r="R8">
-        <v>158.855538608928</v>
+        <v>189.49046852484</v>
       </c>
       <c r="S8">
-        <v>0.004509980668567497</v>
+        <v>0.004917792502818538</v>
       </c>
       <c r="T8">
-        <v>0.004509980668567497</v>
+        <v>0.004917792502818538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N9">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O9">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P9">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q9">
-        <v>44.660588346584</v>
+        <v>16.406649582624</v>
       </c>
       <c r="R9">
-        <v>401.945295119256</v>
+        <v>147.659846243616</v>
       </c>
       <c r="S9">
-        <v>0.01141140892337525</v>
+        <v>0.003832174201041682</v>
       </c>
       <c r="T9">
-        <v>0.01141140892337525</v>
+        <v>0.003832174201041683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H10">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N10">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O10">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P10">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q10">
-        <v>472.362939567288</v>
+        <v>856.7013328304785</v>
       </c>
       <c r="R10">
-        <v>4251.266456105592</v>
+        <v>7710.311995474306</v>
       </c>
       <c r="S10">
-        <v>0.1206953795999915</v>
+        <v>0.2001035451593957</v>
       </c>
       <c r="T10">
-        <v>0.1206953795999915</v>
+        <v>0.2001035451593957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H11">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P11">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q11">
-        <v>28.415371714515</v>
+        <v>50.90231924884834</v>
       </c>
       <c r="R11">
-        <v>255.738345430635</v>
+        <v>458.120873239635</v>
       </c>
       <c r="S11">
-        <v>0.007260527421350978</v>
+        <v>0.0118894813725537</v>
       </c>
       <c r="T11">
-        <v>0.007260527421350977</v>
+        <v>0.0118894813725537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H12">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N12">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q12">
-        <v>7.304428166292</v>
+        <v>15.608294811385</v>
       </c>
       <c r="R12">
-        <v>65.739853496628</v>
+        <v>140.474653302465</v>
       </c>
       <c r="S12">
-        <v>0.001866384206811588</v>
+        <v>0.003645698922087665</v>
       </c>
       <c r="T12">
-        <v>0.001866384206811587</v>
+        <v>0.003645698922087665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H13">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N13">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O13">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P13">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q13">
-        <v>18.482078501559</v>
+        <v>12.162714198324</v>
       </c>
       <c r="R13">
-        <v>166.338706514031</v>
+        <v>109.464427784916</v>
       </c>
       <c r="S13">
-        <v>0.00472243119366214</v>
+        <v>0.002840899315288848</v>
       </c>
       <c r="T13">
-        <v>0.00472243119366214</v>
+        <v>0.002840899315288849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H14">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N14">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O14">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P14">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q14">
-        <v>1136.728986816055</v>
+        <v>1196.23332516219</v>
       </c>
       <c r="R14">
-        <v>10230.5608813445</v>
+        <v>10766.09992645971</v>
       </c>
       <c r="S14">
-        <v>0.2904502556694198</v>
+        <v>0.279409544528084</v>
       </c>
       <c r="T14">
-        <v>0.2904502556694198</v>
+        <v>0.279409544528084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H15">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O15">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P15">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q15">
-        <v>68.38084445962555</v>
+        <v>71.07617121633</v>
       </c>
       <c r="R15">
-        <v>615.42760013663</v>
+        <v>639.6855409469699</v>
       </c>
       <c r="S15">
-        <v>0.01747226822447786</v>
+        <v>0.01660157780979916</v>
       </c>
       <c r="T15">
-        <v>0.01747226822447786</v>
+        <v>0.01660157780979916</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H16">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N16">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q16">
-        <v>17.57791421220711</v>
+        <v>21.79424927547</v>
       </c>
       <c r="R16">
-        <v>158.201227909864</v>
+        <v>196.14824347923</v>
       </c>
       <c r="S16">
-        <v>0.004491404491558774</v>
+        <v>0.005090579852024233</v>
       </c>
       <c r="T16">
-        <v>0.004491404491558773</v>
+        <v>0.005090579852024233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H17">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N17">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O17">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P17">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q17">
-        <v>44.47663567463089</v>
+        <v>16.983099583128</v>
       </c>
       <c r="R17">
-        <v>400.289721071678</v>
+        <v>152.847896248152</v>
       </c>
       <c r="S17">
-        <v>0.01136440642654484</v>
+        <v>0.003966818194563764</v>
       </c>
       <c r="T17">
-        <v>0.01136440642654484</v>
+        <v>0.003966818194563765</v>
       </c>
     </row>
   </sheetData>
